--- a/DOM_Banner/output/dept0713/Daniel C Butler_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Daniel C Butler_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts; Department of Dermatology, University of California, San Francisco; LEO Pharma A/S, Ballerup, Denmark; LEO Pharma Inc, Madison, New Jersey; LEO Pharma Inc, Madison, New Jersey; Department of Dermatology, University of California, San Francisco</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386085013</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Tralokinumab in Older Adults With Moderate-to-Severe Atopic Dermatitis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA Dermatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.2626</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37610789</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.2626</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Dermatology, University of California, San Francisco.; Department of Dermatology, University of California, San Francisco.; Division of Dermatology, University of Arizona, Tucson.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381469425</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Research Fever in Dermatology—A Symptom of a Larger Problem</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JAMA Dermatology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.1690</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37342051</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.1690</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona, College of Medicine, Tuscon, USA; University of Arizona, College of Medicine, Tuscon, USA; University of Utah, School of Medicine, Salt Lake City, UT, USA; Department of Dermatology, University of California, Davis, Sacramento, USA; University of Arizona, College of Medicine, Tuscon, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324311224</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Treatment Strategies for Chronic Pruritus and Eczema/Dermatitis in Older Adults Under the Category of Chronic Eczematous Eruptions of Aging (CEEA)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Clinical Dermatology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Adis, Springer Healthcare</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40257-023-00767-7</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36920748</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40257-023-00767-7</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Pediatric Critical Care, Seattle Children's Hospital, University of Washington, Seattle, WA, United States; ; Salem Health Hospitals and Clinics, Salem, OR, United States; Center for Integrative Brain Research, Seattle Children's Research Institute, Seattle, WA, United States; Department of Pediatrics, University of Washington Medical School, Seattle, WA, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367318088</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Neonatal subarachnoid hemorrhage disrupts multiple aspects of cerebellar development</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Molecular Neuroscience</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37187957</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Pediatric Critical Care, Seattle Children’s Hospital, University of Washington, Seattle, WA;  Center for Integrative Brain Research, Seattle Children's Research Institute;; Salem Health Hospitals and Clinics. Salem, OR 9717; Center for Integrative Brain Research, Seattle Children’s Research Institute, Seattle, WA; Department of Pediatrics, University of Washington Medical School, Seattle, WA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320037224</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Neonatal Subarachnoid Hemorrhage Disrupts Multiple Aspects of Cerebellar Development</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.528048</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36798230</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.528048</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Dermatology, University of California, San Francisco, San Francisco, CA; School of Medicine, University of Utah, Salt Lake City, UT; Department of Dermatology, University of California, San Francisco, San Francisco, CA; University of Arizona College of Medicine—Phoenix, Phoenix, AZ; Department of Dermatology, University of California, San Francisco, San Francisco, CA; Department of Dermatology, University of California, San Francisco, San Francisco, CA; Department of Dermatology, University of California, San Francisco, San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323767119</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Pruritic eruptions in older adults: characterization of a patch test negative cohort</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Itch</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/itx.0000000000000067</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/itx.0000000000000067</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Daniel C Butler_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Daniel C Butler_2023.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tala B. Shahin, Shreya Sreekantaswamy, Jason E. Hawkes, David F. Butler</t>
+          <t>David F. Butler, Jonathan Skibo, Christopher M. Traudt, Kathleen J. Millen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>University of Arizona, College of Medicine, Tuscon, USA; University of Arizona, College of Medicine, Tuscon, USA; University of Utah, School of Medicine, Salt Lake City, UT, USA; Department of Dermatology, University of California, Davis, Sacramento, USA; University of Arizona, College of Medicine, Tuscon, USA</t>
+          <t>Division of Pediatric Critical Care, Seattle Children's Hospital, University of Washington, Seattle, WA, United States; ; Salem Health Hospitals and Clinics, Salem, OR, United States; Center for Integrative Brain Research, Seattle Children's Research Institute, Seattle, WA, United States; Department of Pediatrics, University of Washington Medical School, Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324311224</t>
+          <t>https://openalex.org/W4367318088</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Treatment Strategies for Chronic Pruritus and Eczema/Dermatitis in Older Adults Under the Category of Chronic Eczematous Eruptions of Aging (CEEA)</t>
+          <t>Neonatal subarachnoid hemorrhage disrupts multiple aspects of cerebellar development</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>American Journal of Clinical Dermatology</t>
+          <t>Frontiers in Molecular Neuroscience</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Adis, Springer Healthcare</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40257-023-00767-7</t>
+          <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36920748</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37187957</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40257-023-00767-7</t>
+          <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>David F. Butler, Jonathan Skibo, Christopher M. Traudt, Kathleen J. Millen</t>
+          <t>Tala B. Shahin, Shreya Sreekantaswamy, Jason E. Hawkes, David F. Butler</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Division of Pediatric Critical Care, Seattle Children's Hospital, University of Washington, Seattle, WA, United States; ; Salem Health Hospitals and Clinics, Salem, OR, United States; Center for Integrative Brain Research, Seattle Children's Research Institute, Seattle, WA, United States; Department of Pediatrics, University of Washington Medical School, Seattle, WA, United States</t>
+          <t>University of Arizona, College of Medicine, Tuscon, USA; University of Arizona, College of Medicine, Tuscon, USA; University of Utah, School of Medicine, Salt Lake City, UT, USA; Department of Dermatology, University of California, Davis, Sacramento, USA; University of Arizona, College of Medicine, Tuscon, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367318088</t>
+          <t>https://openalex.org/W4324311224</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Neonatal subarachnoid hemorrhage disrupts multiple aspects of cerebellar development</t>
+          <t>Treatment Strategies for Chronic Pruritus and Eczema/Dermatitis in Older Adults Under the Category of Chronic Eczematous Eruptions of Aging (CEEA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frontiers in Molecular Neuroscience</t>
+          <t>American Journal of Clinical Dermatology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Adis, Springer Healthcare</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
+          <t>https://doi.org/10.1007/s40257-023-00767-7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37187957</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36920748</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fnmol.2023.1161086</t>
+          <t>https://doi.org/10.1007/s40257-023-00767-7</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
